--- a/reports/Rep_Level_Impacts_2025_Summary.xlsx
+++ b/reports/Rep_Level_Impacts_2025_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AccountLists\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AF35B250-40A9-4944-A10F-A806E6781427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7F81C9-0322-4EBA-B953-3E9AB9978C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{D97B55D3-7F39-4539-A23C-B78797187B7D}"/>
+    <workbookView xWindow="-21396" yWindow="1188" windowWidth="19680" windowHeight="8988" xr2:uid="{D97B55D3-7F39-4539-A23C-B78797187B7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Rep_Level_Impacts_2025_Summ (3)" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Rep_Level_Impacts_2025_Summ (3)'!$A$2:$Q$65</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -333,7 +346,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -835,7 +848,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -853,41 +866,34 @@
     <xf numFmtId="37" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="33" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1278,7 +1284,7 @@
     <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="1" customWidth="1"/>
@@ -1289,8 +1295,8 @@
     <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="46.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -2404,7 +2410,7 @@
       <c r="M22" s="8">
         <v>33</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="16">
         <v>253795.41</v>
       </c>
       <c r="O22" s="8">
@@ -3213,10 +3219,10 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="7">
@@ -3225,43 +3231,43 @@
       <c r="D38" s="7">
         <v>541001.96</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="8">
         <v>124</v>
       </c>
-      <c r="F38" s="24">
-        <v>0</v>
-      </c>
-      <c r="G38" s="24">
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
         <v>124</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="22">
         <v>541001.96</v>
       </c>
-      <c r="I38" s="25">
-        <v>0</v>
-      </c>
-      <c r="J38" s="24">
+      <c r="I38" s="22">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
         <v>80</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="8">
         <v>64</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="22">
         <v>26481.39</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="8">
         <v>60</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N38" s="16">
         <v>514520.57</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O38" s="8">
         <v>-64</v>
       </c>
-      <c r="P38" s="25">
+      <c r="P38" s="22">
         <v>-26481.39</v>
       </c>
-      <c r="Q38" s="23">
+      <c r="Q38" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3690,10 +3696,10 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="5">
@@ -3702,43 +3708,43 @@
       <c r="D47" s="5">
         <v>996346.2</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>1415</v>
       </c>
-      <c r="F47" s="20">
-        <v>0</v>
-      </c>
-      <c r="G47" s="20">
+      <c r="F47" s="19">
+        <v>0</v>
+      </c>
+      <c r="G47" s="19">
         <v>1415</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="20">
         <v>996346.2</v>
       </c>
-      <c r="I47" s="21">
-        <v>0</v>
-      </c>
-      <c r="J47" s="20">
+      <c r="I47" s="20">
+        <v>0</v>
+      </c>
+      <c r="J47" s="19">
         <v>1394</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="19">
         <v>1089</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="20">
         <v>13373.6</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="19">
         <v>326</v>
       </c>
-      <c r="N47" s="22">
+      <c r="N47" s="21">
         <v>982972.6</v>
       </c>
-      <c r="O47" s="20">
+      <c r="O47" s="19">
         <v>-1089</v>
       </c>
-      <c r="P47" s="21">
+      <c r="P47" s="20">
         <v>-13373.6</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="Q47" s="18">
         <v>8</v>
       </c>
     </row>
@@ -4707,63 +4713,63 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C67" s="6">
-        <f>SUM(C3:C65)</f>
+        <f t="shared" ref="C67:Q67" si="0">SUM(C3:C65)</f>
         <v>90979065.450000003</v>
       </c>
       <c r="D67" s="6">
-        <f>SUM(D3:D65)</f>
+        <f t="shared" si="0"/>
         <v>84760387.570000008</v>
       </c>
       <c r="E67" s="10">
-        <f>SUM(E3:E65)</f>
+        <f t="shared" si="0"/>
         <v>17332</v>
       </c>
       <c r="F67" s="10">
-        <f>SUM(F3:F65)</f>
+        <f t="shared" si="0"/>
         <v>-18</v>
       </c>
       <c r="G67" s="10">
-        <f>SUM(G3:G65)</f>
+        <f t="shared" si="0"/>
         <v>17314</v>
       </c>
       <c r="H67" s="12">
-        <f>SUM(H3:H65)</f>
+        <f t="shared" si="0"/>
         <v>84577922.370000005</v>
       </c>
       <c r="I67" s="12">
-        <f>SUM(I3:I65)</f>
+        <f t="shared" si="0"/>
         <v>-182465.20000000182</v>
       </c>
       <c r="J67" s="10">
-        <f>SUM(J3:J65)</f>
+        <f t="shared" si="0"/>
         <v>12752</v>
       </c>
       <c r="K67" s="10">
-        <f>SUM(K3:K65)</f>
+        <f t="shared" si="0"/>
         <v>9509</v>
       </c>
       <c r="L67" s="14">
-        <f>SUM(L3:L65)</f>
+        <f t="shared" si="0"/>
         <v>2137524.64</v>
       </c>
       <c r="M67" s="10">
-        <f>SUM(M3:M65)</f>
+        <f t="shared" si="0"/>
         <v>7805</v>
       </c>
       <c r="N67" s="14">
-        <f>SUM(N3:N65)</f>
+        <f t="shared" si="0"/>
         <v>82440397.730000004</v>
       </c>
       <c r="O67" s="4">
-        <f>SUM(O3:O65)</f>
+        <f t="shared" si="0"/>
         <v>-9527</v>
       </c>
       <c r="P67" s="11">
-        <f>SUM(P3:P65)</f>
+        <f t="shared" si="0"/>
         <v>-2319989.8400000012</v>
       </c>
       <c r="Q67" s="4">
-        <f>SUM(Q3:Q65)</f>
+        <f t="shared" si="0"/>
         <v>730</v>
       </c>
     </row>
